--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2115.147355160242</v>
+        <v>420914.3236768881</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2115.147355160242</v>
+        <v>420914.3236768881</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90529.168000722</v>
+        <v>6336252.343275406</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90529.168000722</v>
+        <v>6336252.343275406</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495095906.341309</v>
+        <v>54406396.50365296</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15844.49617573192</v>
+        <v>1298207.98910722</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30511.36699153751</v>
+        <v>2392639.691399497</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45170.93818313612</v>
+        <v>3487071.393691773</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60805.83509586048</v>
+        <v>4513305.990076339</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75784.66544141051</v>
+        <v>5606069.097939025</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90763.49578696054</v>
+        <v>6698832.20580171</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>105742.3261325106</v>
+        <v>7791595.313664392</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>120721.1564780607</v>
+        <v>8884358.421527067</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>135925.3307406588</v>
+        <v>9931356.538716469</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>151149.9831278028</v>
+        <v>10986898.93100232</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>166374.6355149467</v>
+        <v>12042441.32328817</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>181599.2879020907</v>
+        <v>13097983.71557402</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>196825.9777712645</v>
+        <v>14153715.09429659</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>212052.1924889232</v>
+        <v>15209351.91786765</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>228226.9321854327</v>
+        <v>16144030.0065896</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>134</v>
@@ -27052,13 +27052,13 @@
         <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>109</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
